--- a/Documents/Technische_Dokumentation/System_Tests_Tobias.xlsx
+++ b/Documents/Technische_Dokumentation/System_Tests_Tobias.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12653"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="71">
   <si>
     <t>Alle Systemtests sollen mit der fertigen Release-Version getestet werden. Gefundene Fehler müssen vor der Auslieferung an den Kunden ausgebessert werden</t>
   </si>
@@ -597,25 +597,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="50.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.453125" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" customWidth="1"/>
-    <col min="7" max="7" width="29.36328125" customWidth="1"/>
-    <col min="8" max="8" width="12.7265625" customWidth="1"/>
-    <col min="9" max="9" width="27.7265625" customWidth="1"/>
-    <col min="10" max="10" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.9296875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.73046875" customWidth="1"/>
+    <col min="3" max="3" width="22.06640625" customWidth="1"/>
+    <col min="4" max="4" width="50.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.46484375" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.73046875" customWidth="1"/>
+    <col min="9" max="9" width="27.73046875" customWidth="1"/>
+    <col min="10" max="10" width="27.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -634,7 +634,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
     </row>
-    <row r="4" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
@@ -737,7 +737,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>57</v>
       </c>
@@ -840,7 +840,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
@@ -877,7 +877,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>59</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>60</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>61</v>
       </c>
@@ -976,7 +976,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
@@ -1004,14 +1004,16 @@
       <c r="I12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>63</v>
       </c>
@@ -1044,7 +1046,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>64</v>
       </c>
@@ -1081,7 +1083,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>65</v>
       </c>
@@ -1118,7 +1120,7 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
     </row>
-    <row r="16" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>67</v>
       </c>
@@ -1155,7 +1157,7 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
     </row>
-    <row r="17" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
@@ -1188,7 +1190,7 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
     </row>
-    <row r="18" spans="1:15" ht="47.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="47.55" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>68</v>
       </c>
@@ -1221,7 +1223,7 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1238,7 +1240,7 @@
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1255,7 +1257,7 @@
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
